--- a/testData/OpenCart_LoginData.xlsx
+++ b/testData/OpenCart_LoginData.xlsx
@@ -1,25 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ae3c4ff85df6fa3f/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC2D2C00-806D-41AE-AE6F-AD462B4EFBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DCF21C99-7E86-453E-8E75-91DF2334A4E7}"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -27,6 +18,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,22 +38,22 @@
     <t>res</t>
   </si>
   <si>
+    <t>bhaskar@gmail.com</t>
+  </si>
+  <si>
+    <t>test123</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
     <t>Bhaskarpattepu105@gmail.com</t>
   </si>
   <si>
     <t>Bhaskar@123</t>
   </si>
   <si>
-    <t>bhaskar@gmail.com</t>
-  </si>
-  <si>
-    <t>test123</t>
-  </si>
-  <si>
     <t>Valid</t>
-  </si>
-  <si>
-    <t>Invalid</t>
   </si>
   <si>
     <t>bhaskar1@gmail.com</t>
@@ -78,36 +71,182 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,12 +255,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -129,39 +448,329 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -178,44 +787,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -242,32 +851,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -294,24 +885,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -323,158 +896,181 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F13FE48-51C4-4F48-9898-2A236DB4368A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="1" max="1" width="36.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -489,56 +1085,54 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{D7A4A763-2CCD-4D08-9FD0-3FBF2F671E84}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{2D13E657-6ED8-45AE-ADDE-C3EA521C8C11}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{959E18FC-6399-4721-8925-B648A98DA486}"/>
+    <hyperlink ref="A2" r:id="rId1" display="bhaskar@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/testData/OpenCart_LoginData.xlsx
+++ b/testData/OpenCart_LoginData.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Username</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>test12345</t>
+  </si>
+  <si>
+    <t>bhaskar4@gmail.com</t>
+  </si>
+  <si>
+    <t>Test123</t>
+  </si>
+  <si>
+    <t>bhaskar3@gmail.com</t>
+  </si>
+  <si>
+    <t>Test12345</t>
   </si>
 </sst>
 </file>
@@ -78,7 +90,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,13 +112,6 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -564,157 +569,158 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -723,7 +729,7 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
     <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
     <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
     <cellStyle name="Note" xfId="8" builtinId="10"/>
     <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
@@ -1061,13 +1067,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="36.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
@@ -1128,9 +1134,33 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="bhaskar@gmail.com"/>
+    <hyperlink ref="A6" r:id="rId2" display="bhaskar4@gmail.com" tooltip="mailto:bhaskar4@gmail.com"/>
+    <hyperlink ref="A7" r:id="rId3" display="bhaskar3@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
